--- a/KPCB.xlsx
+++ b/KPCB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/russelllewis/Desktop/ACUTEWEBSITE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046E57C0-E566-0B41-A827-C0AAF82B7807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E09FF7B-B318-D24B-88DA-82E8D1B41826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="2560" windowWidth="27000" windowHeight="17260" xr2:uid="{6FE908C7-950A-460B-9E20-D84846436C53}"/>
   </bookViews>
@@ -423,7 +423,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -438,7 +438,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="B2" s="1">
         <v>9.1</v>
@@ -446,7 +446,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="B3" s="1">
         <v>9</v>
@@ -454,7 +454,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="B4" s="1">
         <v>9.1</v>
@@ -462,7 +462,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="B5" s="1">
         <v>9.17</v>
@@ -470,7 +470,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="B6" s="1">
         <v>9</v>
@@ -478,7 +478,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="B7" s="1">
         <v>9.4</v>
@@ -486,7 +486,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="B8" s="1">
         <v>9.4</v>
@@ -494,7 +494,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="B9" s="1">
         <v>9</v>
@@ -502,7 +502,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="B10" s="1">
         <v>9.66</v>
@@ -510,7 +510,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="B11" s="1">
         <v>9.25</v>
@@ -518,7 +518,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="B12" s="1">
         <v>9.33</v>
